--- a/src/assets/DangKyNoiDungThiDau_Single.xlsx
+++ b/src/assets/DangKyNoiDungThiDau_Single.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\SmashHub-FE\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554058D4-F6C2-41F9-A309-22AB62C06936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953C12B-2ADD-4770-9797-7AAA1497051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7524" yWindow="7308" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3288" yWindow="3060" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,10 +47,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>testName1</t>
+    <t>athlete290</t>
   </si>
   <si>
-    <t>testmail1@example.com</t>
+    <t>athlete290@smashhub.com</t>
   </si>
 </sst>
 </file>
@@ -89,7 +100,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,9 +413,12 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9D7B9247-AE48-4D5F-BD31-7AB40F9A9721}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{31E25EC0-24CF-47BE-98C4-9B03EF78ED89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
